--- a/Test Data Driven/AI-Generated/TC27-Schedule Test Run and Configure Settings.xlsx
+++ b/Test Data Driven/AI-Generated/TC27-Schedule Test Run and Configure Settings.xlsx
@@ -446,8 +446,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="69" customWidth="1" min="1" max="1"/>
-    <col width="69" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="1" max="1"/>
+    <col width="61" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/configureTestSuiteSettings-test-data</t>
+          <t>Data Files/AI-Generated/Common/configureTestEnvironmentAndRun-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/scheduleTestRunWithDetails-test-data</t>
+          <t>Data Files/AI-Generated/Common/scheduleAndRunTest-test-data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
